--- a/documentation/Data Reduction.xlsx
+++ b/documentation/Data Reduction.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monka Wahi\Dropbox\Monika!\BRFSS Descriptive\Chapter 3-Reading in Data and Applying Exclusions\Sect 6-Applying the Rest of the Exclusions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\BRFSS\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2B219F-D9AF-44DA-BB15-765585184C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="17235" windowHeight="8010"/>
+    <workbookView xWindow="15675" yWindow="-16320" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Flowchart" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>Exclusion</t>
   </si>
@@ -45,13 +53,40 @@
   </si>
   <si>
     <t>No information on asthma status</t>
+  </si>
+  <si>
+    <t>BRFSS 2018 dataset</t>
+  </si>
+  <si>
+    <t>Veteran</t>
+  </si>
+  <si>
+    <t>Known alcohol status</t>
+  </si>
+  <si>
+    <t>Known sleep duration</t>
+  </si>
+  <si>
+    <t>Known asthma status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No information </t>
+  </si>
+  <si>
+    <t>on alcohol consumption</t>
+  </si>
+  <si>
+    <t>on sleep duration</t>
+  </si>
+  <si>
+    <t>on asthma status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +102,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -99,22 +152,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -123,6 +248,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -132,6 +262,435 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7110C600-D020-4709-B9F8-0F875C56D16B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="952500"/>
+          <a:ext cx="609600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC84794-5DDA-4577-84E1-9FF68354A01D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="952500"/>
+          <a:ext cx="904875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8387A4-FA9C-4FD3-B88B-762F83DE9B71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="952500"/>
+          <a:ext cx="904875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39DB8B8A-997F-4B3D-BB5B-E32B3BE44C58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="952500"/>
+          <a:ext cx="904875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB58247-5F13-4EE6-94CB-683C27402CA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="1543050"/>
+          <a:ext cx="0" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99150F5-5EC5-4780-A5C7-8507F5AB0822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="1543050"/>
+          <a:ext cx="0" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49BC23E-9B21-4D1D-9D69-A91994C92E62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="1543050"/>
+          <a:ext cx="0" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B59948-1946-4EC1-80E5-ADBF78B2787D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="1543050"/>
+          <a:ext cx="0" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -210,6 +769,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -245,6 +821,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,98 +1013,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>464664</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>437436</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="15">
         <f>A2-D2</f>
-        <v>402544</v>
-      </c>
-      <c r="D2" s="4">
-        <v>62120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+        <v>381382</v>
+      </c>
+      <c r="D2" s="15">
+        <v>56054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <f>D2</f>
-        <v>62120</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>56054</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="15">
         <f>A3-D3</f>
-        <v>3129</v>
-      </c>
-      <c r="D3" s="4">
-        <v>58991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+        <v>2392</v>
+      </c>
+      <c r="D3" s="15">
+        <v>53662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <f>D3</f>
-        <v>58991</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>53662</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="15">
         <f>A4-D4</f>
-        <v>670</v>
-      </c>
-      <c r="D4" s="4">
-        <v>58321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+        <v>518</v>
+      </c>
+      <c r="D4" s="15">
+        <v>53144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <f>D4</f>
-        <v>58321</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>53144</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="15">
         <f>A5-D5</f>
-        <v>190</v>
-      </c>
-      <c r="D5" s="4">
-        <v>58131</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D5" s="15">
+        <v>52984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -520,19 +1119,272 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="AA26" sqref="AA26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="2:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="str">
+        <f>"n = "&amp;TEXT(Worksheet!A2,"#,###")</f>
+        <v>n = 437,436</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8" t="str">
+        <f>"n = "&amp;TEXT(Worksheet!C2,"#,###")</f>
+        <v>n = 381,382</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:7" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="str">
+        <f>"n = "&amp;TEXT(Worksheet!D2,"#,###")</f>
+        <v>n = 56,054</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="8" t="str">
+        <f>"n = "&amp;TEXT(Worksheet!C3,"#,###")</f>
+        <v>n = 2,392</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="str">
+        <f>"n = "&amp;TEXT(Worksheet!D3,"#,###")</f>
+        <v>n = 53,662</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="8" t="str">
+        <f>"n = "&amp;TEXT(Worksheet!C4,"#,###")</f>
+        <v>n = 518</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="D20" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="str">
+        <f>"n = "&amp;TEXT(Worksheet!D4,"#,###")</f>
+        <v>n = 53,144</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="8" t="str">
+        <f>"n = "&amp;TEXT(Worksheet!C5,"#,###")</f>
+        <v>n = 160</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="2:7" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="str">
+        <f>"n = "&amp;TEXT(Worksheet!D5,"#,###")</f>
+        <v>n = 52,984</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C21:C23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
